--- a/Project/List_Comprtitions_KK.xlsx
+++ b/Project/List_Comprtitions_KK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\[Project]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8498FF-3750-4FC8-A9F7-E142FF618E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34AAA50-38CD-4E5A-971A-B5E8A203B9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>주최</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,162 @@
   </si>
   <si>
     <t>통계청 국가통계연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025 한국직업능력연구원 KRIVET 패널 학술대회 논문 공모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국직업능력연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.krivet.re.kr/kor/sub.do?menuSn=22&amp;pstNo=NH0000000305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산출물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논문제출+학술대회발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(최우수1편300만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제5회 장애인삶 패널조사 학술대회 논문공모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국장애인개발원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청자격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.09+25.07.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학생부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석사생부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(최우수0편300만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.koddi.or.kr/bbs/notice01_view.jsp?brdNum=7424807&amp;brdTp=NOT01&amp;searchParamUrl=pageSize%3D20%26amp%3BbrdType%3DNOT%26amp%3BbrdTp%3DNOT01%26amp%3Bpage%3D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제1회 공공데이터 분석 및 활용 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신위원회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국방송광고진흥공사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구나부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디어제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(금상200만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kcc.go.kr/user.do?mode=view&amp;page=A05030000&amp;dc=K05030000&amp;boardId=1113&amp;cp=1&amp;nop=10&amp;boardSeq=65829</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 여성가족부 AI 및 데이터 융복합 아이디어 및 분석활용 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장관상+상금(대상1편300만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mogefdatacontest.co.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성가족부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논문제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계청장표창+상금(최우수1명300만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(최우수0편200만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장관상+상금(대상2편1000만)+상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성꿈장학재단 교육소외 아동 및 청소년 종단연구 논문 공모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성꿈장학재단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.03.13+25.04.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박사부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sdream.or.kr/w/bbs0203V?BBS_SID=BBS25000000000384007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,13 +294,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,9 +345,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -444,106 +652,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="31.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="31.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{471CC786-BB36-468A-A1E1-F5914E7895CD}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{3F4C5D49-6BD9-409E-B136-CF8DCDD72140}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{F18BD361-2C46-4EBF-A3A5-989961805554}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{471CC786-BB36-468A-A1E1-F5914E7895CD}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{3F4C5D49-6BD9-409E-B136-CF8DCDD72140}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{F18BD361-2C46-4EBF-A3A5-989961805554}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{10971181-02E8-41B6-A876-2027E659E575}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{D9A068F2-8113-406C-B1FF-C6E244339D18}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{E8192E3A-B430-44F1-A458-9EA020C73A12}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{62C4513C-447E-4714-AB3C-DFA91FD0F421}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{A348A6E5-9A4E-425D-8B9F-C75C1B7FBFA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
